--- a/Basic_Model/Heat_Transfer_Output.xlsx
+++ b/Basic_Model/Heat_Transfer_Output.xlsx
@@ -412,236 +412,236 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>24</v>
+        <v>23.05</v>
       </c>
       <c r="B2">
         <v>290.65</v>
       </c>
       <c r="C2">
-        <v>114.016</v>
+        <v>84.229</v>
       </c>
       <c r="D2">
-        <v>93.732</v>
+        <v>43.102</v>
       </c>
       <c r="E2">
-        <v>7.859</v>
+        <v>28.537</v>
       </c>
       <c r="F2">
-        <v>12.425</v>
+        <v>12.59</v>
       </c>
       <c r="G2">
-        <v>3.689</v>
+        <v>4.918</v>
       </c>
       <c r="H2">
-        <v>0.759</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>23.45</v>
+        <v>19.75</v>
       </c>
       <c r="B3">
         <v>281.25</v>
       </c>
       <c r="C3">
-        <v>183.256</v>
+        <v>173.259</v>
       </c>
       <c r="D3">
-        <v>95.002</v>
+        <v>2.887</v>
       </c>
       <c r="E3">
-        <v>51.686</v>
+        <v>136.111</v>
       </c>
       <c r="F3">
-        <v>36.567</v>
+        <v>34.26</v>
       </c>
       <c r="G3">
-        <v>4.858</v>
+        <v>6.118</v>
       </c>
       <c r="H3">
-        <v>0.945</v>
+        <v>1.167</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>26.2</v>
+        <v>23.85</v>
       </c>
       <c r="B4">
         <v>289.05</v>
       </c>
       <c r="C4">
-        <v>138.887</v>
+        <v>121.129</v>
       </c>
       <c r="D4">
-        <v>86.486</v>
+        <v>18.022</v>
       </c>
       <c r="E4">
-        <v>30.317</v>
+        <v>82.783</v>
       </c>
       <c r="F4">
-        <v>22.084</v>
+        <v>20.324</v>
       </c>
       <c r="G4">
-        <v>4.364</v>
+        <v>5.63</v>
       </c>
       <c r="H4">
-        <v>0.851</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>23.55</v>
+        <v>20.55</v>
       </c>
       <c r="B5">
         <v>283.75</v>
       </c>
       <c r="C5">
-        <v>164.739</v>
+        <v>148.715</v>
       </c>
       <c r="D5">
-        <v>95.104</v>
+        <v>14.244</v>
       </c>
       <c r="E5">
-        <v>40.11</v>
+        <v>106.802</v>
       </c>
       <c r="F5">
-        <v>29.525</v>
+        <v>27.669</v>
       </c>
       <c r="G5">
-        <v>4.631</v>
+        <v>5.896</v>
       </c>
       <c r="H5">
-        <v>0.905</v>
+        <v>1.103</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>24.54</v>
+        <v>22.04</v>
       </c>
       <c r="B6">
         <v>286.54</v>
       </c>
       <c r="C6">
-        <v>148.965</v>
+        <v>130.441</v>
       </c>
       <c r="D6">
-        <v>92.066</v>
+        <v>19.449</v>
       </c>
       <c r="E6">
-        <v>32.46</v>
+        <v>88.139</v>
       </c>
       <c r="F6">
-        <v>24.439</v>
+        <v>22.853</v>
       </c>
       <c r="G6">
-        <v>4.436</v>
+        <v>5.703</v>
       </c>
       <c r="H6">
-        <v>0.87</v>
+        <v>1.048</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>24.15</v>
+        <v>21.9</v>
       </c>
       <c r="B7">
         <v>286.85</v>
       </c>
       <c r="C7">
-        <v>144.304</v>
+        <v>123.552</v>
       </c>
       <c r="D7">
-        <v>93.361</v>
+        <v>24.016</v>
       </c>
       <c r="E7">
-        <v>28.406</v>
+        <v>78.255</v>
       </c>
       <c r="F7">
-        <v>22.537</v>
+        <v>21.281</v>
       </c>
       <c r="G7">
-        <v>4.346</v>
+        <v>5.61</v>
       </c>
       <c r="H7">
-        <v>0.856</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>23.45</v>
+        <v>20.95</v>
       </c>
       <c r="B8">
         <v>285.15</v>
       </c>
       <c r="C8">
-        <v>153.401</v>
+        <v>134.096</v>
       </c>
       <c r="D8">
-        <v>95.58</v>
+        <v>21.331</v>
       </c>
       <c r="E8">
-        <v>32.524</v>
+        <v>88.782</v>
       </c>
       <c r="F8">
-        <v>25.297</v>
+        <v>23.983</v>
       </c>
       <c r="G8">
-        <v>4.465</v>
+        <v>5.725</v>
       </c>
       <c r="H8">
-        <v>0.877</v>
+        <v>1.063</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>24.57</v>
+        <v>22.47</v>
       </c>
       <c r="B9">
         <v>287.82</v>
       </c>
       <c r="C9">
-        <v>139.178</v>
+        <v>117.911</v>
       </c>
       <c r="D9">
-        <v>91.988</v>
+        <v>25.213</v>
       </c>
       <c r="E9">
-        <v>26.142</v>
+        <v>72.822</v>
       </c>
       <c r="F9">
-        <v>21.049</v>
+        <v>19.876</v>
       </c>
       <c r="G9">
-        <v>4.281</v>
+        <v>5.544</v>
       </c>
       <c r="H9">
-        <v>0.844</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>25.05</v>
+        <v>22.3</v>
       </c>
       <c r="B10">
         <v>286.45</v>
       </c>
       <c r="C10">
-        <v>152.629</v>
+        <v>135.934</v>
       </c>
       <c r="D10">
-        <v>90.36</v>
+        <v>15.25</v>
       </c>
       <c r="E10">
-        <v>36.181</v>
+        <v>96.59699999999999</v>
       </c>
       <c r="F10">
-        <v>26.088</v>
+        <v>24.086</v>
       </c>
       <c r="G10">
-        <v>4.509</v>
+        <v>5.782</v>
       </c>
       <c r="H10">
-        <v>0.881</v>
+        <v>1.062</v>
       </c>
     </row>
   </sheetData>

--- a/Basic_Model/Heat_Transfer_Output.xlsx
+++ b/Basic_Model/Heat_Transfer_Output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>T_film</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>int h</t>
+  </si>
+  <si>
+    <t>Trans</t>
+  </si>
+  <si>
+    <t>T_ss</t>
+  </si>
+  <si>
+    <t>K ext</t>
   </si>
 </sst>
 </file>
@@ -378,13 +387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,239 +418,329 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
-        <v>23.05</v>
+        <v>24.05</v>
       </c>
       <c r="B2">
         <v>290.65</v>
       </c>
       <c r="C2">
-        <v>84.229</v>
+        <v>115.408</v>
       </c>
       <c r="D2">
-        <v>43.102</v>
+        <v>89.26300000000001</v>
       </c>
       <c r="E2">
-        <v>28.537</v>
+        <v>10.469</v>
       </c>
       <c r="F2">
-        <v>12.59</v>
+        <v>15.676</v>
       </c>
       <c r="G2">
-        <v>4.918</v>
+        <v>4.636</v>
       </c>
       <c r="H2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.95</v>
+      </c>
+      <c r="I2">
+        <v>0.703</v>
+      </c>
+      <c r="J2">
+        <v>298.87945672599</v>
+      </c>
+      <c r="K2">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
-        <v>19.75</v>
+        <v>23.25</v>
       </c>
       <c r="B3">
         <v>281.25</v>
       </c>
       <c r="C3">
-        <v>173.259</v>
+        <v>195.058</v>
       </c>
       <c r="D3">
-        <v>2.887</v>
+        <v>88.711</v>
       </c>
       <c r="E3">
-        <v>136.111</v>
+        <v>57.959</v>
       </c>
       <c r="F3">
-        <v>34.26</v>
+        <v>48.388</v>
       </c>
       <c r="G3">
-        <v>6.118</v>
+        <v>5.664</v>
       </c>
       <c r="H3">
-        <v>1.167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1.267</v>
+      </c>
+      <c r="I3">
+        <v>0.702</v>
+      </c>
+      <c r="J3">
+        <v>292.435442463685</v>
+      </c>
+      <c r="K3">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
-        <v>23.85</v>
+        <v>26.2</v>
       </c>
       <c r="B4">
         <v>289.05</v>
       </c>
       <c r="C4">
-        <v>121.129</v>
+        <v>144.768</v>
       </c>
       <c r="D4">
-        <v>18.022</v>
+        <v>80.72199999999999</v>
       </c>
       <c r="E4">
-        <v>82.783</v>
+        <v>35.442</v>
       </c>
       <c r="F4">
-        <v>20.324</v>
+        <v>28.604</v>
       </c>
       <c r="G4">
-        <v>5.63</v>
+        <v>5.228</v>
       </c>
       <c r="H4">
-        <v>1.014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1.102</v>
+      </c>
+      <c r="I4">
+        <v>0.703</v>
+      </c>
+      <c r="J4">
+        <v>297.782323029075</v>
+      </c>
+      <c r="K4">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
-        <v>20.55</v>
+        <v>23.45</v>
       </c>
       <c r="B5">
         <v>283.75</v>
       </c>
       <c r="C5">
-        <v>148.715</v>
+        <v>173.571</v>
       </c>
       <c r="D5">
-        <v>14.244</v>
+        <v>89.166</v>
       </c>
       <c r="E5">
-        <v>106.802</v>
+        <v>45.656</v>
       </c>
       <c r="F5">
-        <v>27.669</v>
+        <v>38.748</v>
       </c>
       <c r="G5">
-        <v>5.896</v>
+        <v>5.467</v>
       </c>
       <c r="H5">
-        <v>1.103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>1.197</v>
+      </c>
+      <c r="I5">
+        <v>0.702</v>
+      </c>
+      <c r="J5">
+        <v>294.149523918145</v>
+      </c>
+      <c r="K5">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
-        <v>22.04</v>
+        <v>24.49</v>
       </c>
       <c r="B6">
         <v>286.54</v>
       </c>
       <c r="C6">
-        <v>130.441</v>
+        <v>155.588</v>
       </c>
       <c r="D6">
-        <v>19.449</v>
+        <v>86.399</v>
       </c>
       <c r="E6">
-        <v>88.139</v>
+        <v>37.437</v>
       </c>
       <c r="F6">
-        <v>22.853</v>
+        <v>31.751</v>
       </c>
       <c r="G6">
-        <v>5.703</v>
+        <v>5.298</v>
       </c>
       <c r="H6">
-        <v>1.048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>1.135</v>
+      </c>
+      <c r="I6">
+        <v>0.702</v>
+      </c>
+      <c r="J6">
+        <v>296.062163271585</v>
+      </c>
+      <c r="K6">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
-        <v>21.9</v>
+        <v>24.15</v>
       </c>
       <c r="B7">
         <v>286.85</v>
       </c>
       <c r="C7">
-        <v>123.552</v>
+        <v>150.303</v>
       </c>
       <c r="D7">
-        <v>24.016</v>
+        <v>87.773</v>
       </c>
       <c r="E7">
-        <v>78.255</v>
+        <v>33.227</v>
       </c>
       <c r="F7">
-        <v>21.281</v>
+        <v>29.303</v>
       </c>
       <c r="G7">
-        <v>5.61</v>
+        <v>5.214</v>
       </c>
       <c r="H7">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1.113</v>
+      </c>
+      <c r="I7">
+        <v>0.702</v>
+      </c>
+      <c r="J7">
+        <v>296.27389082713</v>
+      </c>
+      <c r="K7">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
-        <v>20.95</v>
+        <v>23.4</v>
       </c>
       <c r="B8">
         <v>285.15</v>
       </c>
       <c r="C8">
-        <v>134.096</v>
+        <v>160.409</v>
       </c>
       <c r="D8">
-        <v>21.331</v>
+        <v>89.937</v>
       </c>
       <c r="E8">
-        <v>88.782</v>
+        <v>37.48</v>
       </c>
       <c r="F8">
-        <v>23.983</v>
+        <v>32.992</v>
       </c>
       <c r="G8">
-        <v>5.725</v>
+        <v>5.323</v>
       </c>
       <c r="H8">
-        <v>1.063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>1.148</v>
+      </c>
+      <c r="I8">
+        <v>0.702</v>
+      </c>
+      <c r="J8">
+        <v>295.10888274638</v>
+      </c>
+      <c r="K8">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
-        <v>22.47</v>
+        <v>24.57</v>
       </c>
       <c r="B9">
         <v>287.82</v>
       </c>
       <c r="C9">
-        <v>117.911</v>
+        <v>144.451</v>
       </c>
       <c r="D9">
-        <v>25.213</v>
+        <v>86.532</v>
       </c>
       <c r="E9">
-        <v>72.822</v>
+        <v>30.693</v>
       </c>
       <c r="F9">
-        <v>19.876</v>
+        <v>27.226</v>
       </c>
       <c r="G9">
-        <v>5.544</v>
+        <v>5.16</v>
       </c>
       <c r="H9">
-        <v>1.011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1.091</v>
+      </c>
+      <c r="I9">
+        <v>0.702</v>
+      </c>
+      <c r="J9">
+        <v>296.939465008915</v>
+      </c>
+      <c r="K9">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
-        <v>22.3</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>286.45</v>
       </c>
       <c r="C10">
-        <v>135.934</v>
+        <v>160.12</v>
       </c>
       <c r="D10">
-        <v>15.25</v>
+        <v>84.446</v>
       </c>
       <c r="E10">
-        <v>96.59699999999999</v>
+        <v>41.637</v>
       </c>
       <c r="F10">
-        <v>24.086</v>
+        <v>34.037</v>
       </c>
       <c r="G10">
-        <v>5.782</v>
+        <v>5.358</v>
       </c>
       <c r="H10">
-        <v>1.062</v>
+        <v>1.154</v>
+      </c>
+      <c r="I10">
+        <v>0.702</v>
+      </c>
+      <c r="J10">
+        <v>296.00036719078</v>
+      </c>
+      <c r="K10">
+        <v>0.028</v>
       </c>
     </row>
   </sheetData>
